--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +384,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
